--- a/mySystem/mySystem/xls/订单/表90. PALL AUSTAR采购需求单.xlsx
+++ b/mySystem/mySystem/xls/订单/表90. PALL AUSTAR采购需求单.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +641,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,6 +688,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -975,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1001,34 +1004,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="36"/>
-      <c r="N1" s="39"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="35"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="N2" s="39"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
@@ -1042,27 +1045,27 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="30"/>
-      <c r="N3" s="39"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="30"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
@@ -1076,61 +1079,61 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="30"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="43"/>
-      <c r="N6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="42"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -1138,12 +1141,12 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
-      <c r="K8" s="41"/>
-      <c r="N8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -1152,12 +1155,12 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
-      <c r="K9" s="40"/>
-      <c r="N9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -1166,12 +1169,12 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
-      <c r="K10" s="40"/>
-      <c r="N10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -1180,12 +1183,12 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
-      <c r="K11" s="40"/>
-      <c r="N11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -1194,12 +1197,12 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="40"/>
-      <c r="N12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -1208,8 +1211,8 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="40"/>
-      <c r="N13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
@@ -1223,7 +1226,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="30"/>
-      <c r="N14" s="39"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
@@ -1247,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="26"/>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
@@ -1261,7 +1264,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="30"/>
-      <c r="N16" s="39"/>
+      <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
@@ -1275,21 +1278,21 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="23"/>
-      <c r="N17" s="39"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="N18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1338,19 +1341,19 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/mySystem/mySystem/xls/订单/表90. PALL AUSTAR采购需求单.xlsx
+++ b/mySystem/mySystem/xls/订单/表90. PALL AUSTAR采购需求单.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$K$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>存货代码
 Code</t>
@@ -156,28 +156,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">申请人
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Applicant</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请日期
-Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐供应商</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购申请单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望到货时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表90. PALL AUSTAR采购需求单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件需求流水号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -189,45 +212,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单产品数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>件数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号
-Size</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件订单需求流水号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购申请单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望到货时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途 
-（与产品订单关联/年度计划）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>表90. PALL AUSTAR采购需求单</t>
+    <t xml:space="preserve">用途 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -533,6 +526,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -540,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,12 +667,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,12 +682,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +690,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,6 +721,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,11 +736,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,25 +1032,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="22" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="22" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="22" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="22" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="22" customWidth="1"/>
     <col min="13" max="13" width="17.875" style="22" customWidth="1"/>
     <col min="14" max="14" width="18.125" style="22" customWidth="1"/>
@@ -1003,39 +1059,39 @@
     <col min="17" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="37"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35"/>
-      <c r="N1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="N2" s="38"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
+      <c r="A1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="33"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.25">
+      <c r="A2" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="N2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1045,31 +1101,31 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="30"/>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A4" s="29"/>
-      <c r="B4" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="30"/>
-      <c r="N4" s="38"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="29"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -1079,226 +1135,157 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="30"/>
-      <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42"/>
-      <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38"/>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="1:14" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="D7" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="40"/>
-      <c r="N8" s="38"/>
-    </row>
-    <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="39"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="39"/>
-      <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="39"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="39"/>
-      <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="39"/>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
-      <c r="N14" s="38"/>
-    </row>
-    <row r="15" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="26" t="s">
+      <c r="H7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26" t="s">
+      <c r="I7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="26" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="59"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="N15" s="38"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
-      <c r="N16" s="38"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="23"/>
-      <c r="N17" s="38"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="K10" s="26"/>
+      <c r="N10" s="36"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1312,7 +1299,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1327,7 +1314,7 @@
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1340,22 +1327,22 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:11" ht="21" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1368,7 +1355,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
@@ -1387,7 +1374,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1400,7 +1387,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1413,7 +1400,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1461,7 +1448,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13"/>
@@ -1474,7 +1461,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="13"/>
@@ -1487,7 +1474,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="13"/>
@@ -1500,7 +1487,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
@@ -1513,7 +1500,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1526,7 +1513,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="16" t="s">
         <v>15</v>
@@ -1549,7 +1536,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="18" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1562,7 +1549,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
